--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeo\Desktop\what\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeo\Desktop\aihub\Smart_ATM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A94C40F-2355-46A9-B5AD-4BAB7861C9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA656C84-CE44-42EA-BDC2-0E9A0BFE3F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="여수신계좌정보(2021.09.01~2021.10.30)" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
-  <si>
-    <t>고유번호</t>
-  </si>
-  <si>
-    <t>거래일자</t>
-  </si>
-  <si>
-    <t>거래유형</t>
-  </si>
-  <si>
-    <t>거래구분</t>
-  </si>
-  <si>
-    <t>거래금액</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <t>2021-09-30</t>
   </si>
@@ -137,15 +122,6 @@
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>대출차주명(고유번호)</t>
-  </si>
-  <si>
-    <t>대출일</t>
-  </si>
-  <si>
-    <t>대출원금</t>
-  </si>
-  <si>
     <t>2020-05-10</t>
   </si>
   <si>
@@ -155,24 +131,6 @@
     <t>2021-10-04</t>
   </si>
   <si>
-    <t>단기대출여부</t>
-  </si>
-  <si>
-    <t>장기대출여부</t>
-  </si>
-  <si>
-    <t>단기대출일</t>
-  </si>
-  <si>
-    <t>장기대출일</t>
-  </si>
-  <si>
-    <t>단기대출이용금액</t>
-  </si>
-  <si>
-    <t>장기대출이용금액</t>
-  </si>
-  <si>
     <t>2021-01-31</t>
   </si>
   <si>
@@ -183,6 +141,50 @@
   </si>
   <si>
     <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_loan_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_loan_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_loan_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_loan_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -221,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,13 +246,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -594,26 +615,26 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -621,7 +642,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -638,7 +659,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -655,7 +676,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -672,7 +693,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -689,7 +710,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -706,7 +727,7 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -723,7 +744,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -740,7 +761,7 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -757,7 +778,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -774,7 +795,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -791,7 +812,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -808,7 +829,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -825,7 +846,7 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -842,7 +863,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -859,7 +880,7 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -876,7 +897,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -893,7 +914,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -910,7 +931,7 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -927,7 +948,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -944,7 +965,7 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -961,7 +982,7 @@
         <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -978,7 +999,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -995,7 +1016,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1012,7 +1033,7 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1029,7 +1050,7 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1046,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1063,7 +1084,7 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1080,7 +1101,7 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1097,7 +1118,7 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1114,7 +1135,7 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1131,7 +1152,7 @@
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1148,7 +1169,7 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1165,7 +1186,7 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1182,7 +1203,7 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1199,7 +1220,7 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1216,7 +1237,7 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1233,7 +1254,7 @@
         <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1250,7 +1271,7 @@
         <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1267,7 +1288,7 @@
         <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1284,7 +1305,7 @@
         <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1301,7 +1322,7 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1318,7 +1339,7 @@
         <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1335,7 +1356,7 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1352,7 +1373,7 @@
         <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1369,7 +1390,7 @@
         <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1386,7 +1407,7 @@
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1403,7 +1424,7 @@
         <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1420,7 +1441,7 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1437,7 +1458,7 @@
         <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1454,7 +1475,7 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1471,7 +1492,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1488,7 +1509,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1505,7 +1526,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1522,7 +1543,7 @@
         <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1539,7 +1560,7 @@
         <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1556,7 +1577,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1573,7 +1594,7 @@
         <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1590,7 +1611,7 @@
         <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1607,7 +1628,7 @@
         <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1624,7 +1645,7 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1641,7 +1662,7 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1658,7 +1679,7 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1675,7 +1696,7 @@
         <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1692,7 +1713,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1709,7 +1730,7 @@
         <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1726,7 +1747,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1743,7 +1764,7 @@
         <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1760,7 +1781,7 @@
         <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1777,7 +1798,7 @@
         <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1794,7 +1815,7 @@
         <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1811,7 +1832,7 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1828,7 +1849,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1845,7 +1866,7 @@
         <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1862,7 +1883,7 @@
         <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1879,7 +1900,7 @@
         <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1896,7 +1917,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1913,7 +1934,7 @@
         <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1930,7 +1951,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1947,7 +1968,7 @@
         <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1964,7 +1985,7 @@
         <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1981,7 +2002,7 @@
         <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1998,7 +2019,7 @@
         <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2015,7 +2036,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2032,7 +2053,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2049,7 +2070,7 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2066,7 +2087,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2083,7 +2104,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2100,7 +2121,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2117,7 +2138,7 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2134,7 +2155,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2151,7 +2172,7 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2168,7 +2189,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2185,7 +2206,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2202,7 +2223,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2219,7 +2240,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2236,7 +2257,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2253,7 +2274,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2270,7 +2291,7 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2287,7 +2308,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2304,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2327,26 +2348,26 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2354,7 +2375,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2371,7 +2392,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2388,7 +2409,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2405,7 +2426,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2422,7 +2443,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2439,7 +2460,7 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2456,7 +2477,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2473,7 +2494,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2490,7 +2511,7 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2507,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2527,53 +2548,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>6000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>4200000</v>
@@ -2590,20 +2612,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2611,7 +2633,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>8000000</v>
@@ -2627,21 +2649,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2649,7 +2671,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10000000</v>
@@ -2666,20 +2688,20 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2693,32 +2715,32 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2732,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>500000</v>
@@ -2749,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>10000000</v>
@@ -2766,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>5000000</v>
@@ -2783,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>2000000</v>
@@ -2799,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2812,25 +2834,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2844,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>7000000</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeo\Desktop\aihub\Smart_ATM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA656C84-CE44-42EA-BDC2-0E9A0BFE3F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B5DC4-4DA0-4F2E-B13C-66C91AE3C218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="여수신계좌정보(2021.09.01~2021.10.30)" sheetId="1" r:id="rId1"/>
-    <sheet name="여수신계좌정보(2021.10.31)" sheetId="2" r:id="rId2"/>
-    <sheet name="여수신대출정보(2020.10.31~2021.10.28)" sheetId="3" r:id="rId3"/>
-    <sheet name="여수신대출정보(2021.10.29~2021.10.31)" sheetId="4" r:id="rId4"/>
-    <sheet name="보험대출정보(2020.10.31~2021.10.28)" sheetId="5" r:id="rId5"/>
-    <sheet name="보험대출정보(2021.10.29~2021.10.31)" sheetId="6" r:id="rId6"/>
-    <sheet name="카드대출정보(2020.10.31~2021.10.28)" sheetId="7" r:id="rId7"/>
-    <sheet name="카드대출정보(2021.10.29~2021.10.31)" sheetId="8" r:id="rId8"/>
+    <sheet name="account(2021.09.01~2021.10.30)" sheetId="1" r:id="rId1"/>
+    <sheet name="account(2021.10.31)" sheetId="2" r:id="rId2"/>
+    <sheet name="loan(2020.10.31~2021.10.28)" sheetId="3" r:id="rId3"/>
+    <sheet name="loan2021.10.29~2021.10.31)" sheetId="4" r:id="rId4"/>
+    <sheet name="insuranc(2020.10.31~2021.10.28)" sheetId="5" r:id="rId5"/>
+    <sheet name="insuranc(2021.10.29~2021.10.31)" sheetId="6" r:id="rId6"/>
+    <sheet name="card(2020.10.31~2021.10.28)" sheetId="7" r:id="rId7"/>
+    <sheet name="card(2021.10.29~2021.10.31)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2821,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
